--- a/output.xlsx
+++ b/output.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -453,35 +453,37 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Sugar is good for your health</t>
+          <t>Lee Harvey Oswald killed President Kennedy on his own.</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>FALSE</t>
+          <t>TRUE</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0.9</v>
+        <v>0.97</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Sugar is bad for your health</t>
+          <t>The federal authorities routinely collect data on phone calls, emails and other electronic traffic that Americans generate, regardless of whether they have any bearing on a counterterrorism investigation.</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>INSUFFICIENT INFO</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr"/>
+          <t>FALSE</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>0.7</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Sugar is not good for your health</t>
+          <t>North Korea received Soviet and Chinese aid in developing its chemical industry.</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -490,6 +492,96 @@
         </is>
       </c>
       <c r="C4" t="n">
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Despite the severity of the impacts of Hurricane Maria, the Government of Puerto Rico initially reported that only 64 people died in the hurricane. Numerous media outlets harshly criticized the government for suppressing the true death toll.</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>US Representative Anthony Weiner's Twitter account linked to an inappropriate photograph. Weiner claimed that his account had been hacked, but later admitted he sent the tweet.</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>0.99</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Volkswagen had intentionally programmed diesel engines to activate their emissions controls only during laboratory emissions testing, which caused the vehicles' NOx output to meet US standards during regulatory testing. However, the vehicles emitted up to 40 times more NOx in real-world driving.</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>The assassination of Julius Caesar was a conspiracy orchestrated by Marcus Brutus and other Roman senators.</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>The Watergate hotel room used by Democratic National Committee was bugged by Republican officials, operating at the behest of the White House.</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>In the 1950s, the Central Intelligence Agency administered LSD and related drugs under Project MKULTRA, in an effort to investigate the possibility of “mind control”.</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
         <v>0.9</v>
       </c>
     </row>

--- a/output.xlsx
+++ b/output.xlsx
@@ -458,11 +458,11 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>TRUE</t>
+          <t>FALSE</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0.97</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="3">
@@ -473,11 +473,11 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>FALSE</t>
+          <t>TRUE</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="4">
@@ -492,7 +492,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0.85</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="5">
@@ -507,7 +507,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0.95</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6">
@@ -522,7 +522,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0.99</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
@@ -563,11 +563,11 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>TRUE</t>
+          <t>FALSE</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10">
@@ -582,7 +582,7 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0.9</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/output.xlsx
+++ b/output.xlsx
@@ -458,12 +458,10 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>FALSE</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>0.9</v>
-      </c>
+          <t>INSUFFICIENT INFO</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -477,7 +475,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="4">
@@ -552,7 +550,7 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="9">
@@ -563,11 +561,11 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>FALSE</t>
+          <t>TRUE</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="10">

--- a/output.xlsx
+++ b/output.xlsx
@@ -458,10 +458,12 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>INSUFFICIENT INFO</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr"/>
+          <t>FALSE</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>0.8</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -475,7 +477,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="4">
@@ -490,7 +492,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0.9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -501,11 +503,11 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>TRUE</t>
+          <t>FALSE</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="6">
@@ -546,11 +548,11 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>TRUE</t>
+          <t>FALSE</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="9">
@@ -580,7 +582,7 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
     </row>
   </sheetData>

--- a/output.xlsx
+++ b/output.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C367"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -462,7 +462,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="3">
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="4">
@@ -492,7 +492,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="5">
@@ -537,7 +537,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="8">
@@ -548,11 +548,11 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>FALSE</t>
+          <t>TRUE</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="9">
@@ -583,6 +583,5357 @@
       </c>
       <c r="C10" t="n">
         <v>0.9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Operation Northwoods, a rumored plan by the Department of Defense to simulate acts of terrorism and to blame them on Cuba, really was proposed by high-level officials (though the plan never went into effect).</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Watergate incident: Nixon had approved plans to cover up his administration's involvement in the break-in had later tried to use federal officials to deflect attention from the investigation.</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>There were incidents of corporate corruption in the US.</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Good luck charms don't work.</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>It is not possible to harm others merely by thinking bad thoughts about them.</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Numbers like 13 and 7 have no special powers.</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Canada suffered a net loss of skilled workers to the United States in several key knowledge-based occupations.</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Canada received far more university graduates than it has lost to the United States.</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Specific foods, especially those that are rich in fat and/or sugar, are capable of promoting "addiction"-like behavior and neuronal change.</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>There is a Obesity epidemic going on in the US.</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Water will be a major constraint for agriculture in coming decades and particularly in Asia and Africa this will require major institutional adjustments.</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Bangabandhu is described as the proclaimer of the independence  of Bangladesh  in all diplomatic secret documents of the Richard Nixon administration.</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>The Tuskegee Syphilis Study was a study conducted between 1932 and 1972 by the United States Public Health Service and the Centers for Disease Control and Prevention on a group of nearly 400 African Americans with syphilis. The purpose of the study was to observe the effects of the disease when untreated. None of the infected men were treated with penicillin despite the fact that, by 1947, the antibiotic was widely available and had become the standard treatment for syphilis.</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Adolf Hitler had committed suicide.</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>India does not own the entire region of Jammu Kashmir.</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Pakistan does not own the entire region of Jammu Kashmir.</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>The re-education facilities in Sinjiang, China are actually detention centres that captured millions of ethnic Uyghurs and other minorities in Xinjiang arbitrarily, where there have been deaths in custody, physical and psychological abuse and torture, as well as lack of access to medical care.</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>There have been detention and forced labour of Muslim Uyghurs in China.</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Wells Fargo created of millions of fraudulent savings and checking accounts on behalf of Wells Fargo clients without their consent.</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Conversion therapy is ineffective at changing a person's sexual orientation or gender identity and frequently causes significant, long-term psychological harm in individuals who undergo it.</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Scientology is a dangerous cult and a manipulative profit-making business.</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>There has never been any evidence for meridian lines or chakras.</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
+      </c>
+      <c r="C32" t="n">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Microwaving food does not reduce its nutritive value and may preserve it better than other cooking processes due to shorter cooking times.</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
+      </c>
+      <c r="C33" t="n">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Julius Caesar was not born via caesarean section. Such a procedure would have been fatal to the mother at the time, and Caesar's mother was still alive when Caesar was 45 years old.The name "caesarean" probably comes from the Latin verb caedere 'to cut'.</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="C34" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Water fluoridation is the controlled addition of fluoride to a public water supply to reduce tooth decay.</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="C35" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>The Coronavirus pandemic is linked to the destruction of nature, especially to deforestation, habitat loss in general and wildlife trade.</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="C36" t="n">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>The most direct pathway of introduction of COVID-19 virus is direct zoonotic transmission (also known as spillover) from the reservoir species to humans. Scientists consider this to be a highly likely origin of the virus in humans.</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="C37" t="n">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Women make up a small percentage of the workforce in STEM fields.</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="C38" t="n">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Women make up only about a quarter of all elected officials.</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
+      </c>
+      <c r="C39" t="n">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Gender dysphoria is a real medical condition affecting many people.</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="C40" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Studies show gender bias in hiring decisions.</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="C41" t="n">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>Gender stereotypes are pervasive. Society often holds rigid views about what is “appropriate” for each gender.</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="C42" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>Men typically earn more than women in the same job.</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
+      </c>
+      <c r="C43" t="n">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>The Earth is the only known planet to support life.</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
+      </c>
+      <c r="C44" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>The Earth's magnetic field is responsible for protecting the planet from solar radiation.</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="C45" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>Gender roles are changing in the home. Society is slowly moving away from traditional gender roles in the home.</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="C46" t="n">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>Gender-based discrimination is still an issue. Women often face unequal pay and fewer opportunities than men.</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="C47" t="n">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>The Earth is the only known planet to have liquid water on its surface.</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
+      </c>
+      <c r="C48" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>The Roman Empire stretched from Britain to the Middle East in its heyday.</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="C49" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>The Earth is the only known planet to have intelligent life.</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
+      </c>
+      <c r="C50" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>Sun is the center of the solar system and the planets orbit around it.</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
+      </c>
+      <c r="C51" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>The universe began with a single, extremely hot and dense point that then expanded and cooled to form the universe we see today.</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="C52" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>Climate change is real and caused by human activity.</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="C53" t="n">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>Humans evolved from apes.</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="C54" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>Climate Change is an Immediate Threat.</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
+      </c>
+      <c r="C55" t="n">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>The holographic principle states that the universe can be viewed as a two-dimensional hologram.</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
+      </c>
+      <c r="C56" t="n">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>Discrimination based on gender is illegal in many countries.</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="C57" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>Men make up a majority of C-suite executives.</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="C58" t="n">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>Evolution happens by natural selection, by survival of the fittest.</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="C59" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>Vaccinations are an Essential Part of Public Health.</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="C60" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>The Earth's gravity is responsible for the oceans' tides.</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="C61" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>The Earth is the only planet in our solar system with an atmosphere containing oxygen.</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
+      </c>
+      <c r="C62" t="n">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>Humans and dinosaurs did not coexist.</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
+      </c>
+      <c r="C63" t="n">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>The Earth revolves around the Sun.</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="C64" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>The Earth is the fifth largest planet in our solar system.</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
+      </c>
+      <c r="C65" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>Human activities, such as hunting and habitat destruction, are causing the extinction of certain species.</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="C66" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>Vaccines are safe and effective.</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="C67" t="n">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>Religion Should Not be Used to Justify Discrimination.</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="C68" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>The Sun is the center of our solar system.</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="C69" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>The universe is expanding.</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="C70" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>The fall of the Berlin Wall signaled an important shift in global politics.</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="C71" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>An military operation led by the United States aimed at defeating ISIS in Iraq and Syria has been ongoing since 2014.</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="C72" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>In 2016, the world’s nations agreed to take action to reduce global warming.</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="C73" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>The Civil Rights Movement challenged entrenched forms of discrimination around the world.</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="C74" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>The overthrow of the monarchy and the establishment of a republic in France had a major impact on the political landscape of Europe.</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="C75" t="n">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>In 2021, the US and Afghanistan signed a peace deal, ending the US's longest war.</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
+      </c>
+      <c r="C76" t="n">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>In 2016, the Indian government removed 86% of its currency from circulation, in an effort to reduce corruption and counterfeit money.</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="C77" t="n">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>In 2020, protests by Indian farmers against new agricultural laws erupted, leading to a prolonged standoff with the government.</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="C78" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>In 2020, the world experienced record-breaking levels of global warming and climate change.</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="C79" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>A massive leak of documents revealed in 2016 how wealthy individuals and corporations had been evading taxes.</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="C80" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>In 2011, a nuclear accident at the Fukushima Daiichi Nuclear Power Plant in Japan was caused by an earthquake and tsunami.</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="C81" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>The War in Iraq was a military conflict between the United States and its allies, and Iraq from 2003 to 2011.</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="C82" t="n">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>Tensions between India and Pakistan have been rising since 2016, due to terrorism and territorial disputes.</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="C83" t="n">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>The Iliad and Odyssey, written by Homer, are two of the most famous epics of Western literature and were influential in the development of the Greek culture.</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="C84" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>The Birth of Jesus (7 BCE) marks the beginning of Christianity and its spread throughout the world.</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
+      </c>
+      <c r="C85" t="n">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>The Crusades (1095 – 1291) were a series of religious wars fought between European Christians and Muslims for the control of the Holy Land.</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="C86" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>Relations between the US and India improved in 2020, as the US supported India’s growing economy.</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="C87" t="n">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>In 2012, the discovery of a particle, the Higgs Boson, was responsible for giving mass to other particles.</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="C88" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>The Vietnam War (1955 – 1975) was a conflict between North and South Vietnam, resulting in the reunification of the country under a Communist government.</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
+      </c>
+      <c r="C89" t="n">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>India has made major advances in its space program since 2014, launching dozens of satellites and sending a probe to Mars.</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="C90" t="n">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>Relations between the US and China continued to deteriorate in 2020, as both countries imposed sanctions on one another.</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="C91" t="n">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>Yemen has been engulfed in a civil war since 2015, leading to a humanitarian crisis.</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="C92" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>Digital currencies such as Bitcoin have become increasingly popular since the 2010s, with market capitalization reaching billions of dollars.</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="C93" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>The Brown v. Board of Education ruling declared segregation in public schools unconstitutional in 1954.</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="C94" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>The Cold War (1945 – 1991) was a period of political and military tension between the United States and the Soviet Union, resulting in the emergence of two distinct ideological blocs.</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="C95" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>The Arab Spring was a wave of political unrest and protests in the Middle East and North Africa between 2010 and 2012.</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="C96" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>The Protestant Reformation led to the splitting of the Christian world into two branches and the rise of new religious beliefs.</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="C97" t="n">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>Renewable energy sources, such as solar and wind, have become increasingly popular in recent years since the 2010s.</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="C98" t="n">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>In 2019, the Indian government passed a law granting citizenship to refugees from certain religious minorities.</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
+      </c>
+      <c r="C99" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>The leader of al-Qaeda, Osama bin Laden, was killed by U.S. forces in Pakistan in 2011, ending a decade-long manhunt.</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="C100" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>In 2021, the military staged a coup in Myanmar, resulting in a mass crackdown on protesters.</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="C101" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>In 2018, Cambridge Analytica was revealed to have stolen data from millions of Facebook users, known as the Facebook Data Breach.</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="C102" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>Social media use skyrocketed in 2020 as people turned to platforms such as Twitter, TikTok, and Instagram for news and entertainment.</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="C103" t="n">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>Since 2014, the United States has maintained a trade embargo on Cuba after decades of diplomatic relations.</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
+      </c>
+      <c r="C104" t="n">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>Since the 2010s, far-right political parties have been gaining ground in many countries, fueled by xenophobia and anti-immigration sentiment.</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="C105" t="n">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>The Fukushima Daiichi Nuclear Disaster (2011) released radioactive material into the environment.</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="C106" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>In 2017, the US Federal Communications Commission voted to repeal the Obama-era net neutrality rules.</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="C107" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>Since 2010, there has been a surge in opioid addiction and overdoses in the US, leading to increased government action.</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="C108" t="n">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>The killing of an African American man, George Floyd, by a white police officer in 2020 triggered a global wave of protests against racism.</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="C109" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>Autonomous weapons, such as drones, are being developed by several countries since the 2010s, raising fears of a new arms race.</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="C110" t="n">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>The end of the legal system of racial segregation in South Africa was marked by the end of Apartheid in 1994.</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="C111" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>The rise of the Roman Empire established a unified political and cultural entity that would influence the world for centuries to come.</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="C112" t="n">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>Since 2015, NASA has been on a mission to explore the outer reaches of the Solar System, culminating in a flyby of the dwarf planet Pluto.</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
+      </c>
+      <c r="C113" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>Relations between the US and North Korea remained tense in 2020 as both countries continued to threaten one another.</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="C114" t="n">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>The US-Mexico border experienced a crisis in 2020 as thousands of migrants attempted to cross into the US.</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="C115" t="n">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>The rapid expansion of the Islamic Empire led to the spread of Islamic culture and beliefs throughout the Middle East, North Africa, and parts of Europe.</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="C116" t="n">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>In 2015-2017, there was a surge of people from the Middle East, Africa and South Asia seeking asylum in the European Union.</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="C117" t="n">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>In 2016, a disease spread by mosquitos caused severe birth defects in babies born to infected mothers, known as the Zika Outbreak.</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="C118" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>Since 2015, Israel continues to occupy Palestinian territories, leading to conflict and violence in the region.</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="C119" t="n">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>The Cuban Missile Crisis was a 13-day confrontation between the United States and the Soviet Union over the placement of nuclear missiles in Cuba in 1962.</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="C120" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>The Rise of Populism (2016 – Present) has led to an emphasis on national identity and anti-immigrant rhetoric.</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="C121" t="n">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>The war between the North and the South resulted in the abolishment of slavery and the reunification of the United States.</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
+      </c>
+      <c r="C122" t="n">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>The Space Race was an important part of the Cold War.</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="C123" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>On January 6th, 2021, a pro-Trump mob stormed the US Capitol building in what became known as the Capitol Riot.</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="C124" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>The opening of the Suez Canal linked the Mediterranean Sea to the Red Sea and revolutionized trade routes.</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="C125" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>LGBT rights have been increasingly recognized in many countries since 2015, with same-sex marriage now legal in many places.</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="C126" t="n">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>The 2020 US Election was tarnished by allegations of voter fraud and irregularities.</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
+      </c>
+      <c r="C127" t="n">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>The fall of the Soviet Union ended the Cold War.</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="C128" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>The War in Iraq (2003 – 2011) resulted in the overthrow of the Saddam Hussein government and the withdrawal of U.S. forces.</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="C129" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>In 2018, the leaders of North and South Korea met in a historic summit in the demilitarized zone.</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="C130" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>The Islamic State of Iraq and Syria (ISIS) is a terrorist organization that has gained notoriety for its brutality since 2014.</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="C131" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>Saudi Arabia and other countries have imposed a diplomatic and economic embargo on Qatar, due to its alleged support of terrorism since 2017.</t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="C132" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>A civil war in Yemen has created a humanitarian crisis in the country and has been described as the worst in the world since 2015.</t>
+        </is>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="C133" t="n">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>Since 2014, there has been a conflict between the Ukrainian government and pro-Russian separatists in eastern Ukraine.</t>
+        </is>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="C134" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>In 2017, a total eclipse of the sun crossed the continental United States.</t>
+        </is>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="C135" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>In 2016, an augmented-reality game became a worldwide phenomenon, known as Pokémon Go.</t>
+        </is>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="C136" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>Affirmative Action is Necessary in Schools. Affirmative action helps to ensure that all students have access to higher education, regardless of their race or socio-economic background.</t>
+        </is>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="C137" t="n">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>Greenland was named in the hope that it would help attract settlers.</t>
+        </is>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
+      </c>
+      <c r="C138" t="n">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>Although the core of a wooden pencil is commonly referred to as "lead", wooden pencils do not contain the chemical element lead, nor have they ever contained it.</t>
+        </is>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="C139" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>Much of the deep web consists of academic libraries, databases, and anything that is not indexed by normal search engines.</t>
+        </is>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
+      </c>
+      <c r="C140" t="n">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>Human population growth is decreasing and the world population is expected to peak and then begin falling during the 21st century.</t>
+        </is>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
+      </c>
+      <c r="C141" t="n">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>Alcoholic beverages do not make the entire body warmer, people just feel warm.</t>
+        </is>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
+      </c>
+      <c r="C142" t="n">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>Redlining is a deliberate discriminatory practice in which services are withheld from potential customers who reside in racial and ethnic minorities, and low-income neighborhoods. This includes denial of credit and insurance, denial of healthcare and the development of food deserts.</t>
+        </is>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="C143" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>Ryan Jordan, a Wikipedia editor who went by the username "Essjay" was a university professor of religion, during which time he was elected to top positions of trust by the community, including administrator  and arbitrator.</t>
+        </is>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="C144" t="n">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>Not only does chocolate accelerate weight loss, but it leads to healthier cholesterol levels and overall increased well-being.</t>
+        </is>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
+      </c>
+      <c r="C145" t="n">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>1 in 5 Brit Muslims’ sympathy for Jihadis.</t>
+        </is>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
+      </c>
+      <c r="C146" t="n">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>Pride supporters also support ISIS as proved by the flying of ISIS flag at a pride rally.</t>
+        </is>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
+      </c>
+      <c r="C147" t="n">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>President Obama had offered to pay out of his own pocket for the museum of Muslim culture, yet it's the Republican National Committee who's paying for this.</t>
+        </is>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
+      </c>
+      <c r="C148" t="n">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>Far more children died in 2013 drowning in their bathtubs than were killed accidentally by guns.</t>
+        </is>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="C149" t="n">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>Obama had accumulated more debt than previous 43 presidents combined.</t>
+        </is>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="C150" t="n">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>There is no good data showing secondhand smoke kills people.</t>
+        </is>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
+      </c>
+      <c r="C151" t="n">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>The health insurance industry is run mostly by Democrats.</t>
+        </is>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
+      </c>
+      <c r="C152" t="n">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>Ebola can be transmitted through the air by a sneeze or some cough.</t>
+        </is>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
+      </c>
+      <c r="C153" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>Adidas is an acronym for "All day I dream about sports”.</t>
+        </is>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
+      </c>
+      <c r="C154" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>The common image of Santa Claus as a jolly old man in red robes was created by The Coca-Cola Company.</t>
+        </is>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
+      </c>
+      <c r="C155" t="n">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>PepsiCo own the 6th most powerful navy in the world after a deal with the Soviet Union. The ships were old and inoperable, and Pepsi never took possession of the ships, being immediately turned over to a Norwegian shipbreaker. In this deal, Pepsi was merely the middleman.</t>
+        </is>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
+      </c>
+      <c r="C156" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>Foods can never be safely eaten past their "expiration" or "use by" dates.</t>
+        </is>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
+      </c>
+      <c r="C157" t="n">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>Seeds are the spicy part of chili peppers.</t>
+        </is>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
+      </c>
+      <c r="C158" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>Rice causes birds to die by inflating their stomachs until they burst.</t>
+        </is>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
+      </c>
+      <c r="C159" t="n">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>Potato chips were invented by a frustrated George Speck in response to a customer complaining that his French fries were too thick and not salty enough.</t>
+        </is>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
+      </c>
+      <c r="C160" t="n">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>Microwave ovens are tuned to a specific resonance frequency for water molecules in the food.</t>
+        </is>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="C161" t="n">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>Sign languages are the same worldwide.</t>
+        </is>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
+      </c>
+      <c r="C162" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>Eskimos do have a disproportionate number of words representing snow in their languages.</t>
+        </is>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="C163" t="n">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>Xmas originated as a secular plan to take the Christ out of Christmas.</t>
+        </is>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
+      </c>
+      <c r="C164" t="n">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>It is necessary to wait 24 hours before filing a missing person report.</t>
+        </is>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
+      </c>
+      <c r="C165" t="n">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>In the United States, a defendant may have their case dismissed because they were not read their Miranda rights at the time of their arrest.</t>
+        </is>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="C166" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>The musical interval tritone was thought to summon the devil and was banned by the Catholic Church.</t>
+        </is>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
+      </c>
+      <c r="C167" t="n">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>Mozart died from poisoning by his colleague Antonio Salieri.</t>
+        </is>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
+      </c>
+      <c r="C168" t="n">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>Listening to Mozart or classical music enhances intelligence (or IQ).</t>
+        </is>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
+      </c>
+      <c r="C169" t="n">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>The historical Buddha is known to have been fat.</t>
+        </is>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
+      </c>
+      <c r="C170" t="n">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>The word "jihad" does means "holy war" in all contexts</t>
+        </is>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
+      </c>
+      <c r="C171" t="n">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>The forbidden fruit mentioned in the Book of Genesis is identified as an apple in the book itself.</t>
+        </is>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
+      </c>
+      <c r="C172" t="n">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>Violent video games cause people to become violent.</t>
+        </is>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
+      </c>
+      <c r="C173" t="n">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>Vomiting was a regular part of Roman dining customs.</t>
+        </is>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
+      </c>
+      <c r="C174" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>Julius Caesar was born via caesarean section.</t>
+        </is>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
+      </c>
+      <c r="C175" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>The Middle Ages were a time of ignorance, barbarism and superstition; the Church had then placed religious authority over personal experience and rational activity.</t>
+        </is>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
+      </c>
+      <c r="C176" t="n">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>Viking warriors wore horns on their helmets</t>
+        </is>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
+      </c>
+      <c r="C177" t="n">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>Vikings named Iceland "Iceland" as a ploy to discourage others from settling it.</t>
+        </is>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
+      </c>
+      <c r="C178" t="n">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>Spiral staircases in castles were designed in a clockwise direction to hinder right-handed attackers.</t>
+        </is>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
+      </c>
+      <c r="C179" t="n">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>Christopher Columbus was the first European to visit the Americas.</t>
+        </is>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
+      </c>
+      <c r="C180" t="n">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>Black Death in Western Eurasia and North Africa was caused by rats.</t>
+        </is>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
+      </c>
+      <c r="C181" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>Isaac Newton was inspired to research the nature of gravity by an apple hitting his head.</t>
+        </is>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
+      </c>
+      <c r="C182" t="n">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>Victorian-era doctors invented the vibrator to cure female hysteria by triggering orgasm.</t>
+        </is>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
+      </c>
+      <c r="C183" t="n">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>Albert Einstein failed mathematics classes in school.</t>
+        </is>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
+      </c>
+      <c r="C184" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>The Emancipation Proclamation freed all slaves in the United States and made slavery illegal in the United States.</t>
+        </is>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
+      </c>
+      <c r="C185" t="n">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>The Great Chicago Fire of 1871 was caused by Mrs. O'Leary's cow kicking over a lantern.</t>
+        </is>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
+      </c>
+      <c r="C186" t="n">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>When Kitty Genovese was murdered outside her apartment in 1964, there were 37 neighbors standing idly by and watching who failed to call the police until after she was dead.</t>
+        </is>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
+      </c>
+      <c r="C187" t="n">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>Astrology has explanatory power in predicting future events by observing the skies.</t>
+        </is>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
+      </c>
+      <c r="C188" t="n">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>Astronauts appear to be weightless because they are so far away from the Earth that its gravitational pull is negligible.</t>
+        </is>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
+      </c>
+      <c r="C189" t="n">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>The "dark side of the Moon" does not receive the same amount of light from the Sun as does the near side of the Moon.</t>
+        </is>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="C190" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>Egg balancing is possible only on the vernal equinox.</t>
+        </is>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
+      </c>
+      <c r="C191" t="n">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>The Sun is actually yellow.</t>
+        </is>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
+      </c>
+      <c r="C192" t="n">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>The Great Wall of China is the only human-made object visible from the Moon.</t>
+        </is>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
+      </c>
+      <c r="C193" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="inlineStr">
+        <is>
+          <t>Old elephants near death leave their herd to go to an "elephants' graveyard" to die.</t>
+        </is>
+      </c>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
+      </c>
+      <c r="C194" t="n">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="inlineStr">
+        <is>
+          <t>The phases of the Moon effect the vocalizations of wolves.</t>
+        </is>
+      </c>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
+      </c>
+      <c r="C195" t="n">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="inlineStr">
+        <is>
+          <t>Wolf packs have an "alpha". Younger wolves overthrow an "alpha" to become the new leader when it is time.</t>
+        </is>
+      </c>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
+      </c>
+      <c r="C196" t="n">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="inlineStr">
+        <is>
+          <t>Bats are blind.</t>
+        </is>
+      </c>
+      <c r="B197" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
+      </c>
+      <c r="C197" t="n">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="inlineStr">
+        <is>
+          <t>Extracts of shark cartilage can be used as cancer prevention treatments because Sharks cannot have cancer.</t>
+        </is>
+      </c>
+      <c r="B198" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
+      </c>
+      <c r="C198" t="n">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="inlineStr">
+        <is>
+          <t>Porcupines shoot their quills to attack predators.</t>
+        </is>
+      </c>
+      <c r="B199" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
+      </c>
+      <c r="C199" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="inlineStr">
+        <is>
+          <t>Hipposudoric acid, a red pigment found in hippo skin secretions causes them to produce pink milk.</t>
+        </is>
+      </c>
+      <c r="B200" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
+      </c>
+      <c r="C200" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="inlineStr">
+        <is>
+          <t>Ostriches stick their heads in the sand to hide from enemies or to sleep.</t>
+        </is>
+      </c>
+      <c r="B201" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
+      </c>
+      <c r="C201" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="inlineStr">
+        <is>
+          <t>European honey bees are critically essential to human food production. Without their pollination, humanity would starve or die out within four years.</t>
+        </is>
+      </c>
+      <c r="B202" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
+      </c>
+      <c r="C202" t="n">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="inlineStr">
+        <is>
+          <t>Sunflowers point to the Sun.</t>
+        </is>
+      </c>
+      <c r="B203" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="C203" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="inlineStr">
+        <is>
+          <t>The word theory in "the theory of evolution" implies scientific doubt regarding its validity.</t>
+        </is>
+      </c>
+      <c r="B204" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
+      </c>
+      <c r="C204" t="n">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>Mutations entirely random and occur at the same frequency everywhere in the genome.</t>
+        </is>
+      </c>
+      <c r="B205" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
+      </c>
+      <c r="C205" t="n">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="inlineStr">
+        <is>
+          <t>Humans and non-avian dinosaurs coexisted.</t>
+        </is>
+      </c>
+      <c r="B206" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="C206" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="inlineStr">
+        <is>
+          <t>Humans did not coexist with woolly mammoths and saber-toothed cats.</t>
+        </is>
+      </c>
+      <c r="B207" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
+      </c>
+      <c r="C207" t="n">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="inlineStr">
+        <is>
+          <t>Most diamonds are formed from highly compressed coal.</t>
+        </is>
+      </c>
+      <c r="B208" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
+      </c>
+      <c r="C208" t="n">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="inlineStr">
+        <is>
+          <t>Private browsing protects users from being tracked by websites, employers, and governments.</t>
+        </is>
+      </c>
+      <c r="B209" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
+      </c>
+      <c r="C209" t="n">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="inlineStr">
+        <is>
+          <t>Submerging a mobile phone which has suffered from water damage into rice has been shown to be effective in repairing them.</t>
+        </is>
+      </c>
+      <c r="B210" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
+      </c>
+      <c r="C210" t="n">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="inlineStr">
+        <is>
+          <t>Cooling towers in power stations and other facilities emit smoke or harmful fumes.</t>
+        </is>
+      </c>
+      <c r="B211" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="C211" t="n">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="inlineStr">
+        <is>
+          <t>The Yellowstone Caldera is overdue for a supervolcano eruption.</t>
+        </is>
+      </c>
+      <c r="B212" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
+      </c>
+      <c r="C212" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="inlineStr">
+        <is>
+          <t>The Earth's interior is molten rock.</t>
+        </is>
+      </c>
+      <c r="B213" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="C213" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="inlineStr">
+        <is>
+          <t>The Amazon rainforest provides 20% of Earth's oxygen.</t>
+        </is>
+      </c>
+      <c r="B214" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
+      </c>
+      <c r="C214" t="n">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="inlineStr">
+        <is>
+          <t>Rivers predominantly flow from north to south.</t>
+        </is>
+      </c>
+      <c r="B215" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
+      </c>
+      <c r="C215" t="n">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="inlineStr">
+        <is>
+          <t>Human blood in veins is blue.</t>
+        </is>
+      </c>
+      <c r="B216" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
+      </c>
+      <c r="C216" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="inlineStr">
+        <is>
+          <t>Urine is sterile in the bladder.</t>
+        </is>
+      </c>
+      <c r="B217" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
+      </c>
+      <c r="C217" t="n">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="inlineStr">
+        <is>
+          <t>Cracking one's knuckles causes osteoarthritis.</t>
+        </is>
+      </c>
+      <c r="B218" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
+      </c>
+      <c r="C218" t="n">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="inlineStr">
+        <is>
+          <t>Rust causes tetanus infection.</t>
+        </is>
+      </c>
+      <c r="B219" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
+      </c>
+      <c r="C219" t="n">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="inlineStr">
+        <is>
+          <t>Sugar causes hyperactivity in children.</t>
+        </is>
+      </c>
+      <c r="B220" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
+      </c>
+      <c r="C220" t="n">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="inlineStr">
+        <is>
+          <t>Swallowed chewing gum takes seven years to digest.</t>
+        </is>
+      </c>
+      <c r="B221" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
+      </c>
+      <c r="C221" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="inlineStr">
+        <is>
+          <t>Monosodium glutamate (MSG) triggers migraine headaches.</t>
+        </is>
+      </c>
+      <c r="B222" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
+      </c>
+      <c r="C222" t="n">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="inlineStr">
+        <is>
+          <t>Thomas Edison invented the light bulb.</t>
+        </is>
+      </c>
+      <c r="B223" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
+      </c>
+      <c r="C223" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="inlineStr">
+        <is>
+          <t>A penny dropped from the Empire State Building can kill a person or crack the sidewalk.</t>
+        </is>
+      </c>
+      <c r="B224" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
+      </c>
+      <c r="C224" t="n">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="inlineStr">
+        <is>
+          <t>Dyslexia is diagnosed as mirror writing or reading letters or words backwards.</t>
+        </is>
+      </c>
+      <c r="B225" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
+      </c>
+      <c r="C225" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="inlineStr">
+        <is>
+          <t>Humans generate all of the brain cells they will ever have by the age of two years.</t>
+        </is>
+      </c>
+      <c r="B226" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
+      </c>
+      <c r="C226" t="n">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="inlineStr">
+        <is>
+          <t>Humans have no more than the five commonly sighted senses.</t>
+        </is>
+      </c>
+      <c r="B227" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="C227" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="inlineStr">
+        <is>
+          <t>The Bermuda Triangle has many recorded shipwrecks or mysterious disappearances.</t>
+        </is>
+      </c>
+      <c r="B228" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="C228" t="n">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="inlineStr">
+        <is>
+          <t>Leaky gut syndrome is a condition caused by the passage of harmful substances outward through the gut wall and may cause multiple sclerosis and autism.</t>
+        </is>
+      </c>
+      <c r="B229" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
+      </c>
+      <c r="C229" t="n">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="inlineStr">
+        <is>
+          <t>Giving many vaccines at once may overwhelm or weaken a child's immature immune system and lead to adverse effects.</t>
+        </is>
+      </c>
+      <c r="B230" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="C230" t="n">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="inlineStr">
+        <is>
+          <t>Parental alienation is a mental health disorder in which a child expresses hostility or aversion to a parent as an effect of the manipulation of another parent.</t>
+        </is>
+      </c>
+      <c r="B231" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
+      </c>
+      <c r="C231" t="n">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="inlineStr">
+        <is>
+          <t>Australia is a continent and not a country.</t>
+        </is>
+      </c>
+      <c r="B232" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
+      </c>
+      <c r="C232" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="inlineStr">
+        <is>
+          <t>The Arctic Circle is the coldest place on Earth.</t>
+        </is>
+      </c>
+      <c r="B233" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
+      </c>
+      <c r="C233" t="n">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="inlineStr">
+        <is>
+          <t>The Sahara Desert is the largest desert in the world.</t>
+        </is>
+      </c>
+      <c r="B234" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="C234" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="inlineStr">
+        <is>
+          <t>The Amazon Rainforest is in Africa.</t>
+        </is>
+      </c>
+      <c r="B235" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
+      </c>
+      <c r="C235" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="inlineStr">
+        <is>
+          <t>Cell phones emit dangerous levels of radiation and can cause cancer.</t>
+        </is>
+      </c>
+      <c r="B236" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
+      </c>
+      <c r="C236" t="n">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="inlineStr">
+        <is>
+          <t>Computer viruses are physical entities that can be seen with the naked eye.</t>
+        </is>
+      </c>
+      <c r="B237" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
+      </c>
+      <c r="C237" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="inlineStr">
+        <is>
+          <t>Typing in all capital letters online is equivalent to shouting.</t>
+        </is>
+      </c>
+      <c r="B238" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
+      </c>
+      <c r="C238" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="inlineStr">
+        <is>
+          <t>Children are better language learners than adults.</t>
+        </is>
+      </c>
+      <c r="B239" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
+      </c>
+      <c r="C239" t="n">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="inlineStr">
+        <is>
+          <t>Dialects are simply incorrect forms of language.</t>
+        </is>
+      </c>
+      <c r="B240" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
+      </c>
+      <c r="C240" t="n">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="inlineStr">
+        <is>
+          <t>The only way to learn a language is to memorize rules and vocabulary.</t>
+        </is>
+      </c>
+      <c r="B241" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
+      </c>
+      <c r="C241" t="n">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="inlineStr">
+        <is>
+          <t>You should never use "ain't”.</t>
+        </is>
+      </c>
+      <c r="B242" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
+      </c>
+      <c r="C242" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="inlineStr">
+        <is>
+          <t>You should never use double negatives.</t>
+        </is>
+      </c>
+      <c r="B243" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
+      </c>
+      <c r="C243" t="n">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="inlineStr">
+        <is>
+          <t>Ending a sentence with a preposition is incorrect.</t>
+        </is>
+      </c>
+      <c r="B244" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
+      </c>
+      <c r="C244" t="n">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="inlineStr">
+        <is>
+          <t>Starting a sentence with a conjunction is incorrect.</t>
+        </is>
+      </c>
+      <c r="B245" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
+      </c>
+      <c r="C245" t="n">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="inlineStr">
+        <is>
+          <t>Women are not good at mathematics.</t>
+        </is>
+      </c>
+      <c r="B246" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
+      </c>
+      <c r="C246" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="inlineStr">
+        <is>
+          <t>Men's rights movement is misogynistic, hateful, and, in some cases, as advocate violence against women.</t>
+        </is>
+      </c>
+      <c r="B247" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="C247" t="n">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="inlineStr">
+        <is>
+          <t>Men's rights groups are part of a hate ideology under the umbrella of male supremacy.</t>
+        </is>
+      </c>
+      <c r="B248" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
+      </c>
+      <c r="C248" t="n">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="inlineStr">
+        <is>
+          <t>Ireland is rich but the Irish are backward and lazy.</t>
+        </is>
+      </c>
+      <c r="B249" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
+      </c>
+      <c r="C249" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="inlineStr">
+        <is>
+          <t>The Irish are uncivilized, superstitious, and reckless.</t>
+        </is>
+      </c>
+      <c r="B250" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
+      </c>
+      <c r="C250" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="inlineStr">
+        <is>
+          <t>Ireland is synonymous with child molestation, Nazi-sympathising, and the oppression of women.</t>
+        </is>
+      </c>
+      <c r="B251" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
+      </c>
+      <c r="C251" t="n">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="inlineStr">
+        <is>
+          <t>Muslims believe in Black Supremacy and the destruction of white governments.</t>
+        </is>
+      </c>
+      <c r="B252" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
+      </c>
+      <c r="C252" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="inlineStr">
+        <is>
+          <t>Social acceptance of divorce and non-married women is wrong and harmful.</t>
+        </is>
+      </c>
+      <c r="B253" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
+      </c>
+      <c r="C253" t="n">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="inlineStr">
+        <is>
+          <t>Women should not be in the workforce, political office, and the voting process. There should be more male authority in families and countries.</t>
+        </is>
+      </c>
+      <c r="B254" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
+      </c>
+      <c r="C254" t="n">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="inlineStr">
+        <is>
+          <t>Italian neighborhoods in America are often violent and controlled by criminal networks.</t>
+        </is>
+      </c>
+      <c r="B255" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
+      </c>
+      <c r="C255" t="n">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="inlineStr">
+        <is>
+          <t>White people hate negroes, jews, and muslims. They are impulsive and think they are superior than everyone else.</t>
+        </is>
+      </c>
+      <c r="B256" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
+      </c>
+      <c r="C256" t="n">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="inlineStr">
+        <is>
+          <t>The Aryan race is the pinnacle of human racial hierarchy. It is the purest and most superior human race that ever existed and its descendents show superior qualities till date.</t>
+        </is>
+      </c>
+      <c r="B257" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
+      </c>
+      <c r="C257" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="inlineStr">
+        <is>
+          <t>All nurses are female.</t>
+        </is>
+      </c>
+      <c r="B258" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
+      </c>
+      <c r="C258" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="inlineStr">
+        <is>
+          <t>Male nurses are effeminate.</t>
+        </is>
+      </c>
+      <c r="B259" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
+      </c>
+      <c r="C259" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="inlineStr">
+        <is>
+          <t>Nurses are less-educated and work for physicians.</t>
+        </is>
+      </c>
+      <c r="B260" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
+      </c>
+      <c r="C260" t="n">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="inlineStr">
+        <is>
+          <t>Males are generally better at mathematics than females.</t>
+        </is>
+      </c>
+      <c r="B261" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
+      </c>
+      <c r="C261" t="n">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="inlineStr">
+        <is>
+          <t>Management and similar leader positions are masculine in type, meaning they require aggressiveness, competitiveness, strength and independence. These traits do not line up with the female gender role.</t>
+        </is>
+      </c>
+      <c r="B262" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
+      </c>
+      <c r="C262" t="n">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="inlineStr">
+        <is>
+          <t>Appalachian people are typically lawless, violent, and uneducated.</t>
+        </is>
+      </c>
+      <c r="B263" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
+      </c>
+      <c r="C263" t="n">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="inlineStr">
+        <is>
+          <t>African-Americans have an unusual appetite for fried chicken, watermelon, and grape drink.</t>
+        </is>
+      </c>
+      <c r="B264" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
+      </c>
+      <c r="C264" t="n">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="inlineStr">
+        <is>
+          <t>African-Americans are typically hypersexual.</t>
+        </is>
+      </c>
+      <c r="B265" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
+      </c>
+      <c r="C265" t="n">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="inlineStr">
+        <is>
+          <t>Black people are less intelligent.</t>
+        </is>
+      </c>
+      <c r="B266" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
+      </c>
+      <c r="C266" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="inlineStr">
+        <is>
+          <t>Black men are deadbeat fathers.</t>
+        </is>
+      </c>
+      <c r="B267" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
+      </c>
+      <c r="C267" t="n">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="inlineStr">
+        <is>
+          <t>Black women are typically angry, loud, aggressive, demanding, and rude.</t>
+        </is>
+      </c>
+      <c r="B268" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
+      </c>
+      <c r="C268" t="n">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="inlineStr">
+        <is>
+          <t>Jews are typically greedy and miserly.</t>
+        </is>
+      </c>
+      <c r="B269" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
+      </c>
+      <c r="C269" t="n">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="inlineStr">
+        <is>
+          <t>A Jewish mother is typically nagging, loud, highly-talkative, overprotective, smothering, and overbearing. She persists in interfering in her children's lives long after they have become adults and is excellent at making her children feel guilty for actions that may have caused her to suffer.</t>
+        </is>
+      </c>
+      <c r="B270" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
+      </c>
+      <c r="C270" t="n">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="inlineStr">
+        <is>
+          <t>Jewish lawyers are clever, greedy, exploitative, dishonest, and engage in moral turpitude and excessive legalism.</t>
+        </is>
+      </c>
+      <c r="B271" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
+      </c>
+      <c r="C271" t="n">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="inlineStr">
+        <is>
+          <t>Jewish men are historically effeminate.</t>
+        </is>
+      </c>
+      <c r="B272" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
+      </c>
+      <c r="C272" t="n">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="inlineStr">
+        <is>
+          <t>Hispanic and Latina women are typically lazy, verbally aggressive, and lack work ethic.</t>
+        </is>
+      </c>
+      <c r="B273" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
+      </c>
+      <c r="C273" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="inlineStr">
+        <is>
+          <t>Hispanic and Latino men are more likely to be unintelligent, comedic, aggressive, sexual, and unprofessional.</t>
+        </is>
+      </c>
+      <c r="B274" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
+      </c>
+      <c r="C274" t="n">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="inlineStr">
+        <is>
+          <t>Lesbians live a dark and almost depressing lifestyle.</t>
+        </is>
+      </c>
+      <c r="B275" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
+      </c>
+      <c r="C275" t="n">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="inlineStr">
+        <is>
+          <t>Lesbians prey on and seduce straight women in relationships with men.</t>
+        </is>
+      </c>
+      <c r="B276" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
+      </c>
+      <c r="C276" t="n">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="inlineStr">
+        <is>
+          <t>Lesbians often mistreat bisexual women or outright shun them if they had a history of sleeping with men, considering them gross.</t>
+        </is>
+      </c>
+      <c r="B277" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
+      </c>
+      <c r="C277" t="n">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="inlineStr">
+        <is>
+          <t>Lesbianism is a gene passed from mothers to daughters which sometimes caused both to fight over the same woman.</t>
+        </is>
+      </c>
+      <c r="B278" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
+      </c>
+      <c r="C278" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="inlineStr">
+        <is>
+          <t>Lesbians have a masculine presentation.</t>
+        </is>
+      </c>
+      <c r="B279" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
+      </c>
+      <c r="C279" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="inlineStr">
+        <is>
+          <t>Gay men are often effeminate.</t>
+        </is>
+      </c>
+      <c r="B280" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
+      </c>
+      <c r="C280" t="n">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="inlineStr">
+        <is>
+          <t>Gay men are typically involved with the performing arts, and are theatrical and overly dramatic.</t>
+        </is>
+      </c>
+      <c r="B281" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
+      </c>
+      <c r="C281" t="n">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="inlineStr">
+        <is>
+          <t>Lesbians are more likely than gay men to be in steady relationships.</t>
+        </is>
+      </c>
+      <c r="B282" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
+      </c>
+      <c r="C282" t="n">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="inlineStr">
+        <is>
+          <t>Americans care most about money, judging all things by their economic value, and scorning those of lower socioeconomic status.</t>
+        </is>
+      </c>
+      <c r="B283" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
+      </c>
+      <c r="C283" t="n">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" t="inlineStr">
+        <is>
+          <t>Americans are ignorant of countries and cultures beyond their own.</t>
+        </is>
+      </c>
+      <c r="B284" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
+      </c>
+      <c r="C284" t="n">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" t="inlineStr">
+        <is>
+          <t>Americans are reckless and imprudent people regarding the preservation of the environment.</t>
+        </is>
+      </c>
+      <c r="B285" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
+      </c>
+      <c r="C285" t="n">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" t="inlineStr">
+        <is>
+          <t>American people are excessively nationalistic, believing the United States is better than all other countries and patronizing foreigners.</t>
+        </is>
+      </c>
+      <c r="B286" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
+      </c>
+      <c r="C286" t="n">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" t="inlineStr">
+        <is>
+          <t>Americans want to be "the world's policemen", believing that the entire world needs their help – even if this results in preemptive military intervention – because they are somehow exceptional.</t>
+        </is>
+      </c>
+      <c r="B287" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
+      </c>
+      <c r="C287" t="n">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" t="inlineStr">
+        <is>
+          <t>Americans are over-reliant on personal automobiles.They are easily confused by roundabouts.</t>
+        </is>
+      </c>
+      <c r="B288" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
+      </c>
+      <c r="C288" t="n">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" t="inlineStr">
+        <is>
+          <t>South Asians are typically either convenience store or restaurant owners, cab drivers or motel operators. They tend to be uneducated, with large families and live in crowded homes.</t>
+        </is>
+      </c>
+      <c r="B289" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
+      </c>
+      <c r="C289" t="n">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" t="inlineStr">
+        <is>
+          <t>It is the moral obligation of the West to bring industry and modern advancement to the “lesser” races of the world.</t>
+        </is>
+      </c>
+      <c r="B290" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
+      </c>
+      <c r="C290" t="n">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" t="inlineStr">
+        <is>
+          <t>Latinos are illegal immigrants.</t>
+        </is>
+      </c>
+      <c r="B291" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
+      </c>
+      <c r="C291" t="n">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" t="inlineStr">
+        <is>
+          <t>Native Americans are spiritual.</t>
+        </is>
+      </c>
+      <c r="B292" t="inlineStr">
+        <is>
+          <t>TRUE</t>
+        </is>
+      </c>
+      <c r="C292" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" t="inlineStr">
+        <is>
+          <t>Black people are lazy.</t>
+        </is>
+      </c>
+      <c r="B293" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
+      </c>
+      <c r="C293" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" t="inlineStr">
+        <is>
+          <t>Latinos are dirty.</t>
+        </is>
+      </c>
+      <c r="B294" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
+      </c>
+      <c r="C294" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" t="inlineStr">
+        <is>
+          <t>African Americans are more likely to commit crimes.</t>
+        </is>
+      </c>
+      <c r="B295" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
+      </c>
+      <c r="C295" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" t="inlineStr">
+        <is>
+          <t>Hispanics are more likely to be in the country illegally.</t>
+        </is>
+      </c>
+      <c r="B296" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
+      </c>
+      <c r="C296" t="n">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" t="inlineStr">
+        <is>
+          <t>Native Americans are superstitious.</t>
+        </is>
+      </c>
+      <c r="B297" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
+      </c>
+      <c r="C297" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" t="inlineStr">
+        <is>
+          <t>Latinos are uneducated.</t>
+        </is>
+      </c>
+      <c r="B298" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
+      </c>
+      <c r="C298" t="n">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" t="inlineStr">
+        <is>
+          <t>Latinos are street smart.</t>
+        </is>
+      </c>
+      <c r="B299" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
+      </c>
+      <c r="C299" t="n">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" t="inlineStr">
+        <is>
+          <t>People of color are more likely to be involved in gangs.</t>
+        </is>
+      </c>
+      <c r="B300" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
+      </c>
+      <c r="C300" t="n">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" t="inlineStr">
+        <is>
+          <t>African Americans are loud.</t>
+        </is>
+      </c>
+      <c r="B301" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
+      </c>
+      <c r="C301" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" t="inlineStr">
+        <is>
+          <t>Men are more logical and analytical, while women are more intuitive and nurturing.</t>
+        </is>
+      </c>
+      <c r="B302" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
+      </c>
+      <c r="C302" t="n">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" t="inlineStr">
+        <is>
+          <t>African Americans are better at sports than others.</t>
+        </is>
+      </c>
+      <c r="B303" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
+      </c>
+      <c r="C303" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" t="inlineStr">
+        <is>
+          <t>African Americans are violent.</t>
+        </is>
+      </c>
+      <c r="B304" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
+      </c>
+      <c r="C304" t="n">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" t="inlineStr">
+        <is>
+          <t>Men are more interested in sports and physical activity, while women are more interested in shopping and fashion.</t>
+        </is>
+      </c>
+      <c r="B305" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
+      </c>
+      <c r="C305" t="n">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" t="inlineStr">
+        <is>
+          <t>Asians are good at technology.</t>
+        </is>
+      </c>
+      <c r="B306" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
+      </c>
+      <c r="C306" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" t="inlineStr">
+        <is>
+          <t>Asians are exotic.</t>
+        </is>
+      </c>
+      <c r="B307" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
+      </c>
+      <c r="C307" t="n">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" t="inlineStr">
+        <is>
+          <t>People of color are lazy and don't want to work hard.</t>
+        </is>
+      </c>
+      <c r="B308" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
+      </c>
+      <c r="C308" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" t="inlineStr">
+        <is>
+          <t>Native Americans have a drinking problem.</t>
+        </is>
+      </c>
+      <c r="B309" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
+      </c>
+      <c r="C309" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" t="inlineStr">
+        <is>
+          <t>African Americans are poor.</t>
+        </is>
+      </c>
+      <c r="B310" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
+      </c>
+      <c r="C310" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" t="inlineStr">
+        <is>
+          <t>African Americans are uncultured.</t>
+        </is>
+      </c>
+      <c r="B311" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
+      </c>
+      <c r="C311" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" t="inlineStr">
+        <is>
+          <t>People of color have lower moral standards.</t>
+        </is>
+      </c>
+      <c r="B312" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
+      </c>
+      <c r="C312" t="n">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" t="inlineStr">
+        <is>
+          <t>Native Americans are primitive.</t>
+        </is>
+      </c>
+      <c r="B313" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
+      </c>
+      <c r="C313" t="n">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" t="inlineStr">
+        <is>
+          <t>Caucasians are more likely to be wealthy.</t>
+        </is>
+      </c>
+      <c r="B314" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
+      </c>
+      <c r="C314" t="n">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" t="inlineStr">
+        <is>
+          <t>Latinos are untrustworthy.</t>
+        </is>
+      </c>
+      <c r="B315" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
+      </c>
+      <c r="C315" t="n">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" t="inlineStr">
+        <is>
+          <t>Men are more interested in careers and work, while women are more interested in raising families and taking care of the home.</t>
+        </is>
+      </c>
+      <c r="B316" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
+      </c>
+      <c r="C316" t="n">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" t="inlineStr">
+        <is>
+          <t>Latinos are gang members.</t>
+        </is>
+      </c>
+      <c r="B317" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
+      </c>
+      <c r="C317" t="n">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" t="inlineStr">
+        <is>
+          <t>Asians are model minorities.</t>
+        </is>
+      </c>
+      <c r="B318" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
+      </c>
+      <c r="C318" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" t="inlineStr">
+        <is>
+          <t>Asians are hardworking.</t>
+        </is>
+      </c>
+      <c r="B319" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
+      </c>
+      <c r="C319" t="inlineStr"/>
+    </row>
+    <row r="320">
+      <c r="A320" t="inlineStr">
+        <is>
+          <t>Men are stronger and more aggressive than women.</t>
+        </is>
+      </c>
+      <c r="B320" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
+      </c>
+      <c r="C320" t="n">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" t="inlineStr">
+        <is>
+          <t>People of color are more likely to drop out of school.</t>
+        </is>
+      </c>
+      <c r="B321" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
+      </c>
+      <c r="C321" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" t="inlineStr">
+        <is>
+          <t>Jewish people are greedy.</t>
+        </is>
+      </c>
+      <c r="B322" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
+      </c>
+      <c r="C322" t="n">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" t="inlineStr">
+        <is>
+          <t>People of color are more likely to be on welfare.</t>
+        </is>
+      </c>
+      <c r="B323" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
+      </c>
+      <c r="C323" t="n">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" t="inlineStr">
+        <is>
+          <t>Latinos are lazy.</t>
+        </is>
+      </c>
+      <c r="B324" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
+      </c>
+      <c r="C324" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" t="inlineStr">
+        <is>
+          <t>Native Americans are lazy.</t>
+        </is>
+      </c>
+      <c r="B325" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
+      </c>
+      <c r="C325" t="n">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" t="inlineStr">
+        <is>
+          <t>Native Americans are uncivilized.</t>
+        </is>
+      </c>
+      <c r="B326" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
+      </c>
+      <c r="C326" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" t="inlineStr">
+        <is>
+          <t>Latinos are overly sexual.</t>
+        </is>
+      </c>
+      <c r="B327" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
+      </c>
+      <c r="C327" t="n">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" t="inlineStr">
+        <is>
+          <t>People of color are less intelligent than white people.</t>
+        </is>
+      </c>
+      <c r="B328" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
+      </c>
+      <c r="C328" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" t="inlineStr">
+        <is>
+          <t>African Americans are lazy.</t>
+        </is>
+      </c>
+      <c r="B329" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
+      </c>
+      <c r="C329" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" t="inlineStr">
+        <is>
+          <t>African Americans are unintelligent.</t>
+        </is>
+      </c>
+      <c r="B330" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
+      </c>
+      <c r="C330" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" t="inlineStr">
+        <is>
+          <t>Women are more emotional than men.</t>
+        </is>
+      </c>
+      <c r="B331" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
+      </c>
+      <c r="C331" t="n">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" t="inlineStr">
+        <is>
+          <t>Asians are good at math.</t>
+        </is>
+      </c>
+      <c r="B332" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
+      </c>
+      <c r="C332" t="n">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" t="inlineStr">
+        <is>
+          <t>Asians are better drivers than other races.</t>
+        </is>
+      </c>
+      <c r="B333" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
+      </c>
+      <c r="C333" t="n">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" t="inlineStr">
+        <is>
+          <t>Native Americans are poor.</t>
+        </is>
+      </c>
+      <c r="B334" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
+      </c>
+      <c r="C334" t="n">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" t="inlineStr">
+        <is>
+          <t>Asians are good at science.</t>
+        </is>
+      </c>
+      <c r="B335" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
+      </c>
+      <c r="C335" t="n">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" t="inlineStr">
+        <is>
+          <t>Hispanics are living in poverty.</t>
+        </is>
+      </c>
+      <c r="B336" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
+      </c>
+      <c r="C336" t="n">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" t="inlineStr">
+        <is>
+          <t>Asians are nerdy.</t>
+        </is>
+      </c>
+      <c r="B337" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
+      </c>
+      <c r="C337" t="n">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" t="inlineStr">
+        <is>
+          <t>Middle Easterners are terrorists.</t>
+        </is>
+      </c>
+      <c r="B338" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
+      </c>
+      <c r="C338" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" t="inlineStr">
+        <is>
+          <t>People of color are not as American as white people.</t>
+        </is>
+      </c>
+      <c r="B339" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
+      </c>
+      <c r="C339" t="n">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" t="inlineStr">
+        <is>
+          <t>Latinos are poor.</t>
+        </is>
+      </c>
+      <c r="B340" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
+      </c>
+      <c r="C340" t="n">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" t="inlineStr">
+        <is>
+          <t>Caucasians are better educated than other races.</t>
+        </is>
+      </c>
+      <c r="B341" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
+      </c>
+      <c r="C341" t="n">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" t="inlineStr">
+        <is>
+          <t>People of color are not as successful as white people.</t>
+        </is>
+      </c>
+      <c r="B342" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
+      </c>
+      <c r="C342" t="n">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" t="inlineStr">
+        <is>
+          <t>Asians are bad drivers.</t>
+        </is>
+      </c>
+      <c r="B343" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
+      </c>
+      <c r="C343" t="n">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" t="inlineStr">
+        <is>
+          <t>People of color are all the same and don't value education.</t>
+        </is>
+      </c>
+      <c r="B344" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
+      </c>
+      <c r="C344" t="n">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" t="inlineStr">
+        <is>
+          <t>African Americans have a lower IQ.</t>
+        </is>
+      </c>
+      <c r="B345" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
+      </c>
+      <c r="C345" t="n">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" t="inlineStr">
+        <is>
+          <t>Asians are submissive.</t>
+        </is>
+      </c>
+      <c r="B346" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
+      </c>
+      <c r="C346" t="n">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" t="inlineStr">
+        <is>
+          <t>People of color are dangerous or prone to criminal activity.</t>
+        </is>
+      </c>
+      <c r="B347" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
+      </c>
+      <c r="C347" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" t="inlineStr">
+        <is>
+          <t>Elderly people are not tech-savvy.</t>
+        </is>
+      </c>
+      <c r="B348" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
+      </c>
+      <c r="C348" t="n">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" t="inlineStr">
+        <is>
+          <t>Middle-aged people are boring.</t>
+        </is>
+      </c>
+      <c r="B349" t="inlineStr">
+        <is>
+          <t>INSUFFICIENT INFO</t>
+        </is>
+      </c>
+      <c r="C349" t="inlineStr"/>
+    </row>
+    <row r="350">
+      <c r="A350" t="inlineStr">
+        <is>
+          <t>Young people lack wisdom.</t>
+        </is>
+      </c>
+      <c r="B350" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
+      </c>
+      <c r="C350" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" t="inlineStr">
+        <is>
+          <t>Teenagers are rebellious, irresponsible, and prone to risky behavior.</t>
+        </is>
+      </c>
+      <c r="B351" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
+      </c>
+      <c r="C351" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" t="inlineStr">
+        <is>
+          <t>Elderly people are grumpy, lonely, and have a limited ability to enjoy life.</t>
+        </is>
+      </c>
+      <c r="B352" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
+      </c>
+      <c r="C352" t="n">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" t="inlineStr">
+        <is>
+          <t>British people are stiff and reserved.</t>
+        </is>
+      </c>
+      <c r="B353" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
+      </c>
+      <c r="C353" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354" t="inlineStr">
+        <is>
+          <t>French people are rude and arrogant.</t>
+        </is>
+      </c>
+      <c r="B354" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
+      </c>
+      <c r="C354" t="n">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" t="inlineStr">
+        <is>
+          <t>Russians are harsh, drink vodka all day, and are cold in nature.</t>
+        </is>
+      </c>
+      <c r="B355" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
+      </c>
+      <c r="C355" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" t="inlineStr">
+        <is>
+          <t>Lawyers are greedy and unethical.</t>
+        </is>
+      </c>
+      <c r="B356" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
+      </c>
+      <c r="C356" t="n">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" t="inlineStr">
+        <is>
+          <t>Doctors are cold, uncaring, and overpaid.</t>
+        </is>
+      </c>
+      <c r="B357" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
+      </c>
+      <c r="C357" t="n">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" t="inlineStr">
+        <is>
+          <t>Police officers are corrupt, aggressive, and abuse their power.</t>
+        </is>
+      </c>
+      <c r="B358" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
+      </c>
+      <c r="C358" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" t="inlineStr">
+        <is>
+          <t>Artists are eccentric, unprofessional, and financially struggling.</t>
+        </is>
+      </c>
+      <c r="B359" t="inlineStr">
+        <is>
+          <t>INSUFFICIENT INFO</t>
+        </is>
+      </c>
+      <c r="C359" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360" t="inlineStr">
+        <is>
+          <t>Engineers are boring, uncreative, and lacking in social skills.</t>
+        </is>
+      </c>
+      <c r="B360" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
+      </c>
+      <c r="C360" t="n">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361" t="inlineStr">
+        <is>
+          <t>Overweight individuals are lazy, undisciplined, and lacking in willpower.</t>
+        </is>
+      </c>
+      <c r="B361" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
+      </c>
+      <c r="C361" t="n">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="362">
+      <c r="A362" t="inlineStr">
+        <is>
+          <t>Individuals with disabilities are helpless, dependent, and unable to lead fulfilling lives.</t>
+        </is>
+      </c>
+      <c r="B362" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
+      </c>
+      <c r="C362" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="363">
+      <c r="A363" t="inlineStr">
+        <is>
+          <t>Conservatives are old-fashioned, out-of-touch, and lacking in compassion.</t>
+        </is>
+      </c>
+      <c r="B363" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
+      </c>
+      <c r="C363" t="n">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="364">
+      <c r="A364" t="inlineStr">
+        <is>
+          <t>Liberals are hippies, naive, and lacking in common sense.</t>
+        </is>
+      </c>
+      <c r="B364" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
+      </c>
+      <c r="C364" t="n">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="365">
+      <c r="A365" t="inlineStr">
+        <is>
+          <t>Libertarians are selfish, uncaring, and lacking in social responsibility.</t>
+        </is>
+      </c>
+      <c r="B365" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
+      </c>
+      <c r="C365" t="n">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="366">
+      <c r="A366" t="inlineStr">
+        <is>
+          <t>Socialists are lazy, dependent, and lacking in personal initiative.</t>
+        </is>
+      </c>
+      <c r="B366" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
+      </c>
+      <c r="C366" t="n">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="367">
+      <c r="A367" t="inlineStr">
+        <is>
+          <t>Nationalists are racist, xenophobic, and lacking in empathy for other cultures.</t>
+        </is>
+      </c>
+      <c r="B367" t="inlineStr">
+        <is>
+          <t>FALSE</t>
+        </is>
+      </c>
+      <c r="C367" t="n">
+        <v>0.8</v>
       </c>
     </row>
   </sheetData>
